--- a/biology/Botanique/Peter_Barr/Peter_Barr.xlsx
+++ b/biology/Botanique/Peter_Barr/Peter_Barr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Barr, né le 20 avril 1826 à Lanarkshire 17 septembre 1909 à Londres, est un horticulteur britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fonde en 1861 un commerce de graines et de bulbes à Covent Garden du nom de Barr and Sudgens, celui-ci est plus tard rebaptisé sous le nom de Barr and Sons et subsiste jusque dans les années 1950, à cette date l'entreprise fusionne avec son concurrent R. Wallace and Co de Colchester sous le nom de Wallace and Barr. Il consacre sa vie à la culture et à l’amélioration des narcisses, il travaille également sur d’autres plantes comme les pivoines. Il possède des serres à Covent Garden. Les archives de Barr sont détruites dans un incendie, aussi on ignore comment il a obtenu nombre d’hybrides qu’il commercialisait.
 Barr est notamment l’auteur de Ye Narcissus or daffodyl flowre, and hys roots, with hys histoire and culture... : embellished with manie woodcuts (1884) et de Readings on the Lilies of the World (1901).
@@ -543,10 +557,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1912, la Royal Horticultural Society décerne annuellement la Peter Barr Memorial Cup, en commémoration de Peter Barr et sur recommandation du comité des jonquilles et tulipes, à une personne qui a accompli un travail de qualité dans le domaine des
-jonquilles[1].
+jonquilles.
 </t>
         </is>
       </c>
